--- a/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-6,68</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>9,33</t>
+          <t>10,17</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>-4,49</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-33,78%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>195,01%</t>
+          <t>203,02%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>-25,42%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,75; -2,67</t>
+          <t>-4,0; 7,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,62; 12,53</t>
+          <t>6,29; 14,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 4,91</t>
+          <t>-9,44; -0,37</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-49,35; -15,56</t>
+          <t>-12,73; 28,86</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>106,74; 342,28</t>
+          <t>77,42; 476,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-12,03; 23,3</t>
+          <t>-46,02; -2,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>3,95</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,23</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-8,17%</t>
+          <t>-6,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>221,91%</t>
+          <t>266,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-6,7%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,15</t>
+          <t>-3,57; 1,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,67; 5,18</t>
+          <t>1,57; 5,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,7</t>
+          <t>-1,69; 2,59</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 11,25</t>
+          <t>-17,76; 5,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>123,85; 378,44</t>
+          <t>96,81; 651,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-17,07; 3,75</t>
+          <t>-15,28; 28,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,32</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>6,14</t>
+          <t>6,54</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-13,89%</t>
+          <t>-16,29%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2850,42%</t>
+          <t>3181,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-15,09%</t>
+          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 1,73</t>
+          <t>-5,81; 0,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 8,01</t>
+          <t>4,59; 9,01</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,14; 0,5</t>
+          <t>-2,31; 3,47</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-37,5; 24,61</t>
+          <t>-34,51; 6,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>669,55; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 4,04</t>
+          <t>-26,84; 52,36</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,09</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,74</t>
+          <t>5,7</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,93</t>
+          <t>-0,2</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-16,56%</t>
+          <t>-4,56%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>294,14%</t>
+          <t>372,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-5,05%</t>
+          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; -0,4</t>
+          <t>-2,81; 0,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,66; 6,74</t>
+          <t>3,85; 7,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 0,67</t>
+          <t>-1,86; 1,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-27,64; -3,06</t>
+          <t>-13,84; 4,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>199,97; 401,33</t>
+          <t>206,5; 651,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 3,82</t>
+          <t>-16,54; 15,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>3,26</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>12,35%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 7,1</t>
+          <t>-1,94; 9,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 14,84</t>
+          <t>6,37; 14,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-12,73; 28,86</t>
+          <t>-7,14; 38,71</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,42; 476,09</t>
+          <t>79,63; 467,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-6,68%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,57; 1,06</t>
+          <t>-2,32; 2,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,66</t>
+          <t>1,55; 5,55</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-17,76; 5,77</t>
+          <t>-12,06; 13,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>96,81; 651,24</t>
+          <t>89,4; 560,1</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,38</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-16,29%</t>
+          <t>-3,84%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 0,77</t>
+          <t>-3,34; 2,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,59; 9,01</t>
+          <t>4,56; 9,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 6,02</t>
+          <t>-23,93; 19,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-4,56%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,9</t>
+          <t>-1,29; 2,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,45</t>
+          <t>3,6; 7,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-13,84; 4,94</t>
+          <t>-7,01; 13,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>206,5; 651,25</t>
+          <t>203,06; 660,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/CONS_OTR-Estudios-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,61</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-4,49</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>3,26</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>10,17</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,49</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>201,02%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-25,42%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>12,35%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>203,02%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-25,42%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>5,77; 13,13</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-9,44; -0,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-1,94; 9,12</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 14,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,44; -0,37</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>78,95; 434,59</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-46,02; -2,41</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-7,14; 38,71</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>79,63; 467,94</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-46,02; -2,41</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>4,37</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,04</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>254,77%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,79%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,23%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>266,48%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>3,02; 5,96</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 2,59</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-2,32; 2,32</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>1,55; 5,55</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,69; 2,59</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>130,72; 462,01</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 28,17</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-12,06; 13,92</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>89,4; 560,1</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-15,28; 28,17</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,7</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-0,48</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,7</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>3995,76%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9,29%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>-3,84%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3181,72%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>9,29%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>4,91; 9,54</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 3,47</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-3,34; 2,04</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,56; 9,42</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,31; 3,47</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-26,84; 52,36</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-23,93; 19,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-26,84; 52,36</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,22</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,5</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>5,7</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,2</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>362,84%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-1,89%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>2,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>372,51%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-1,89%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>5,07; 7,34</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 1,49</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-1,29; 2,2</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>3,6; 7,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 1,49</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>227,9; 543,56</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-16,54; 15,49</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-7,01; 13,16</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>203,06; 660,81</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-16,54; 15,49</t>
         </is>
       </c>
     </row>
